--- a/results/arma20_model_results.xlsx
+++ b/results/arma20_model_results.xlsx
@@ -401,13 +401,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.748346295825743</v>
+        <v>-0.745220526266252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0924073279107074</v>
+        <v>0.0919792231427196</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.09834363513752</v>
+        <v>-8.10205284197639</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -418,13 +418,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.471232428955563</v>
+        <v>-0.467632222796714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.092605508519084</v>
+        <v>0.0919925416445528</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.08860041364011</v>
+        <v>-5.08337104766149</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -435,13 +435,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00874125245093766</v>
+        <v>-0.00839567998234618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00770536027977423</v>
+        <v>0.0076652298887339</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.13443786319538</v>
+        <v>-1.09529395780887</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -452,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411821243553482</v>
+        <v>0.409586883899209</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -463,7 +463,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166197634496149</v>
+        <v>0.165685936536102</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
